--- a/crowd_certain/outputs/final_figures/figure_weight_strength_relation/figure_weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_weight_strength_relation/figure_weight_strength_relation.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2064297917551973</v>
+        <v>0.2063868735844748</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1440265855005717</v>
+        <v>0.14399664138479</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3115733340156809</v>
+        <v>0.3156666930687693</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4738374626783745</v>
+        <v>0.4737389486172739</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.505194905133607</v>
+        <v>0.5050898716449699</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8020311589313343</v>
+        <v>0.8018644111479299</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5392072163326626</v>
+        <v>0.5390951114510532</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.7981903470813047</v>
+        <v>0.798024397829049</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.236338716423761</v>
+        <v>1.236081673117893</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.153676436318251</v>
+        <v>1.153436579067845</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.289883577972998</v>
+        <v>1.289615402322861</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.381709852850938</v>
+        <v>1.381422585887921</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.328095963753138</v>
+        <v>1.327819843485692</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.26583710435016</v>
+        <v>1.265573928126954</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.404368706784973</v>
+        <v>1.404076728890684</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.378622188748605</v>
+        <v>1.37833556373215</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.421047518926419</v>
+        <v>1.420752073392596</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.399859619258997</v>
+        <v>1.399568578834957</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.462190458819888</v>
+        <v>1.461886459386439</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.497879054363141</v>
+        <v>1.497567635025699</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9655210807261927</v>
+        <v>0.9655991566740064</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9366049738850084</v>
+        <v>0.9366807115592268</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9187959164645279</v>
+        <v>0.9172529329668211</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8183365821947841</v>
+        <v>0.8184027562075125</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8477671060721538</v>
+        <v>0.8478356599563239</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9021099859614118</v>
+        <v>0.9021829342310996</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8944678082475865</v>
+        <v>0.894540138539811</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8351733888414671</v>
+        <v>0.8352409243466199</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.011233418668753</v>
+        <v>1.011315191101484</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9928846032552179</v>
+        <v>0.9929648919283667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.014047130126858</v>
+        <v>1.0141291300877</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.080567312701169</v>
+        <v>1.080654691753579</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.054059911835405</v>
+        <v>1.054145147391947</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.002969092430479</v>
+        <v>1.003050196576295</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.10716059753037</v>
+        <v>1.107250127023572</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.09354107727113</v>
+        <v>1.093629505434726</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.118110598505239</v>
+        <v>1.118201013459901</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.108115625888973</v>
+        <v>1.108205232609639</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.132784408873867</v>
+        <v>1.132876010412307</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.165749380519403</v>
+        <v>1.165843647739057</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.004911561765477959</v>
+        <v>0.00491090676638329</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.0466368195462401</v>
+        <v>0.04798539450922949</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1070517710685537</v>
+        <v>0.1070374947921918</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.276907900995189</v>
+        <v>0.2768709729398944</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2280541315483521</v>
+        <v>0.2274939700628229</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7443756448389504</v>
+        <v>0.7442763759308628</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9591005218259062</v>
+        <v>0.9589726175047373</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9587314673657915</v>
+        <v>0.9583160867926905</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.305461351468049</v>
+        <v>1.305287256944929</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.36778317256613</v>
+        <v>1.369601345896547</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.395451662880637</v>
+        <v>1.395265567373854</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.364387745422182</v>
+        <v>1.363245809946933</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.385278309489174</v>
+        <v>1.385093570686751</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.386969685994254</v>
+        <v>1.387122359146569</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.405779737926417</v>
+        <v>1.406081803184485</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.403294025897283</v>
+        <v>1.403742817108704</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.415069161967779</v>
+        <v>1.414880450298408</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.409387077677025</v>
+        <v>1.409199123762568</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.421359652391098</v>
+        <v>1.42079604921987</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.414008597365515</v>
+        <v>1.413820027131574</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.068436924282015</v>
+        <v>1.067944483982438</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.041082252532498</v>
+        <v>1.041063796643669</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8727332866680846</v>
+        <v>0.8724697628914463</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.7226032995335685</v>
+        <v>0.7222702532140244</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8018908945232304</v>
+        <v>0.8087891143948103</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7494966182683133</v>
+        <v>0.7491511768755239</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.8400392508243132</v>
+        <v>0.8396520785252934</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8779887670292905</v>
+        <v>0.8773066217241797</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.046586828889832</v>
+        <v>1.046104459252619</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.07051922024726</v>
+        <v>1.071577964559529</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.085817337881361</v>
+        <v>1.085316886986227</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.064392391594276</v>
+        <v>1.063824758802943</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.082909529646328</v>
+        <v>1.082410418953807</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.082850435956414</v>
+        <v>1.08261330774133</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.097480809268914</v>
+        <v>1.096662296799546</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.092233264636301</v>
+        <v>1.092223243382248</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.100784810245113</v>
+        <v>1.100277460873889</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.096678993760572</v>
+        <v>1.09617353675141</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.105345432149485</v>
+        <v>1.104545772992451</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.100129652062835</v>
+        <v>1.09962260465262</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>50</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>

--- a/crowd_certain/outputs/final_figures/figure_weight_strength_relation/figure_weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/final_figures/figure_weight_strength_relation/figure_weight_strength_relation.xlsx
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2063868735844748</v>
+        <v>0.2064297917551973</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.14399664138479</v>
+        <v>0.1440265855005717</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3156666930687693</v>
+        <v>0.3115733340156809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4737389486172739</v>
+        <v>0.4738374626783745</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5050898716449699</v>
+        <v>0.505194905133607</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8018644111479299</v>
+        <v>0.8020311589313343</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5390951114510532</v>
+        <v>0.5392072163326626</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.798024397829049</v>
+        <v>0.7981903470813047</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.236081673117893</v>
+        <v>1.236338716423761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.153436579067845</v>
+        <v>1.153676436318251</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.289615402322861</v>
+        <v>1.289883577972998</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.381422585887921</v>
+        <v>1.381709852850938</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.327819843485692</v>
+        <v>1.328095963753138</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.265573928126954</v>
+        <v>1.26583710435016</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.404076728890684</v>
+        <v>1.404368706784973</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.37833556373215</v>
+        <v>1.378622188748605</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.420752073392596</v>
+        <v>1.421047518926419</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.399568578834957</v>
+        <v>1.399859619258997</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.461886459386439</v>
+        <v>1.462190458819888</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.497567635025699</v>
+        <v>1.497879054363141</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9655991566740064</v>
+        <v>0.9655210807261927</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9366807115592268</v>
+        <v>0.9366049738850084</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9172529329668211</v>
+        <v>0.9187959164645279</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8184027562075125</v>
+        <v>0.8183365821947841</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8478356599563239</v>
+        <v>0.8477671060721538</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9021829342310996</v>
+        <v>0.9021099859614118</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.894540138539811</v>
+        <v>0.8944678082475865</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8352409243466199</v>
+        <v>0.8351733888414671</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.011315191101484</v>
+        <v>1.011233418668753</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9929648919283667</v>
+        <v>0.9928846032552179</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.0141291300877</v>
+        <v>1.014047130126858</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.080654691753579</v>
+        <v>1.080567312701169</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.054145147391947</v>
+        <v>1.054059911835405</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.003050196576295</v>
+        <v>1.002969092430479</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.107250127023572</v>
+        <v>1.10716059753037</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.093629505434726</v>
+        <v>1.09354107727113</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.118201013459901</v>
+        <v>1.118110598505239</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.108205232609639</v>
+        <v>1.108115625888973</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.132876010412307</v>
+        <v>1.132784408873867</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.165843647739057</v>
+        <v>1.165749380519403</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.00491090676638329</v>
+        <v>0.004911561765477959</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.04798539450922949</v>
+        <v>0.0466368195462401</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1070374947921918</v>
+        <v>0.1070517710685537</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.2768709729398944</v>
+        <v>0.276907900995189</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2274939700628229</v>
+        <v>0.2280541315483521</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.7442763759308628</v>
+        <v>0.7443756448389504</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9589726175047373</v>
+        <v>0.9591005218259062</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9583160867926905</v>
+        <v>0.9587314673657915</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.305287256944929</v>
+        <v>1.305461351468049</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.369601345896547</v>
+        <v>1.36778317256613</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.395265567373854</v>
+        <v>1.395451662880637</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.363245809946933</v>
+        <v>1.364387745422182</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.385093570686751</v>
+        <v>1.385278309489174</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.387122359146569</v>
+        <v>1.386969685994254</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.406081803184485</v>
+        <v>1.405779737926417</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.403742817108704</v>
+        <v>1.403294025897283</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.414880450298408</v>
+        <v>1.415069161967779</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.409199123762568</v>
+        <v>1.409387077677025</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.42079604921987</v>
+        <v>1.421359652391098</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.413820027131574</v>
+        <v>1.414008597365515</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.067944483982438</v>
+        <v>1.068436924282015</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.041063796643669</v>
+        <v>1.041082252532498</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8724697628914463</v>
+        <v>0.8727332866680846</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.7222702532140244</v>
+        <v>0.7226032995335685</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8087891143948103</v>
+        <v>0.8018908945232304</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7491511768755239</v>
+        <v>0.7494966182683133</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.8396520785252934</v>
+        <v>0.8400392508243132</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8773066217241797</v>
+        <v>0.8779887670292905</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.046104459252619</v>
+        <v>1.046586828889832</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.071577964559529</v>
+        <v>1.07051922024726</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="B92" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.085316886986227</v>
+        <v>1.085817337881361</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.063824758802943</v>
+        <v>1.064392391594276</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.082410418953807</v>
+        <v>1.082909529646328</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.08261330774133</v>
+        <v>1.082850435956414</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.096662296799546</v>
+        <v>1.097480809268914</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.092223243382248</v>
+        <v>1.092233264636301</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.100277460873889</v>
+        <v>1.100784810245113</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.09617353675141</v>
+        <v>1.096678993760572</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.104545772992451</v>
+        <v>1.105345432149485</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.09962260465262</v>
+        <v>1.100129652062835</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>50</v>
       </c>
       <c r="B112" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>56</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
